--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MONTANA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MONTANA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -721,12 +721,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C25">
@@ -739,7 +739,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C26">
@@ -848,7 +848,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C34">
@@ -861,7 +861,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C35">
@@ -905,7 +905,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C38">
@@ -944,7 +944,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C41">
@@ -988,7 +988,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C44">
@@ -1014,7 +1014,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C46">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C59">
@@ -1273,7 +1273,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C64">
@@ -1317,7 +1317,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C67">
@@ -1532,7 +1532,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C82">
@@ -1566,41 +1566,6 @@
       </c>
       <c r="D84">
         <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MONTANA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MONTANA_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -1082,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1121,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1134,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1240,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1271,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1284,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1315,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Villa De La Paz</t>
@@ -1328,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1359,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -1372,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1403,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Yécora</t>
@@ -1416,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1447,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -1460,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1491,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -1504,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -1517,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -1530,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -1543,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
